--- a/results/mp/tinybert/home-spam/confidence/42/stop-words-topk-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/42/stop-words-topk-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="106">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,18 +49,18 @@
     <t>useless</t>
   </si>
   <si>
+    <t>stopped</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>stopped</t>
+    <t>however</t>
   </si>
   <si>
     <t>returned</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
@@ -70,43 +70,58 @@
     <t>loves</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>amazing</t>
   </si>
   <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>pleased</t>
+    <t>beautiful</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>beautiful</t>
-  </si>
-  <si>
     <t>loved</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
     <t>salad</t>
   </si>
   <si>
-    <t>great</t>
+    <t>cakes</t>
   </si>
   <si>
     <t>thank</t>
@@ -115,67 +130,55 @@
     <t>family</t>
   </si>
   <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>husband</t>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>cooke</t>
   </si>
   <si>
     <t>glad</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
     <t>cake</t>
   </si>
   <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
     <t>kids</t>
   </si>
   <si>
     <t>rice</t>
   </si>
   <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
     <t>gift</t>
   </si>
   <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
     <t>potatoes</t>
   </si>
   <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>pie</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>cooks</t>
+    <t>ze</t>
   </si>
   <si>
     <t>years</t>
@@ -184,133 +187,124 @@
     <t>old</t>
   </si>
   <si>
-    <t>pie</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
     <t>popcorn</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>day</t>
+    <t>always</t>
+  </si>
+  <si>
+    <t>cream</t>
   </si>
   <si>
     <t>kitchen</t>
   </si>
   <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>works</t>
   </si>
   <si>
     <t>pan</t>
   </si>
   <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>works</t>
+    <t>w</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>making</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>maker</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>every</t>
   </si>
   <si>
-    <t>fast</t>
-  </si>
-  <si>
     <t>bought</t>
   </si>
   <si>
-    <t>dish</t>
+    <t>also</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>pot</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>clean</t>
   </si>
   <si>
     <t>big</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>ox</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
     <t>make</t>
   </si>
   <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>quality</t>
+    <t>long</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>one</t>
@@ -319,25 +313,22 @@
     <t>job</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
     <t>buy</t>
   </si>
   <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
     <t>made</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>product</t>
   </si>
   <si>
     <t>positive</t>
@@ -698,7 +689,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q93"/>
+  <dimension ref="A1:Q90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -709,7 +700,7 @@
         <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -767,13 +758,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8275862068965517</v>
+        <v>0.9310344827586207</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -785,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>17</v>
@@ -817,13 +808,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6296296296296297</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -835,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K4">
-        <v>0.8985507246376812</v>
+        <v>0.8984375</v>
       </c>
       <c r="L4">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="M4">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -859,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -867,13 +858,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -885,19 +876,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K5">
-        <v>0.875</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L5">
-        <v>112</v>
+        <v>544</v>
       </c>
       <c r="M5">
-        <v>112</v>
+        <v>544</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -909,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>16</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -917,13 +908,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.310077519379845</v>
+        <v>0.3773584905660378</v>
       </c>
       <c r="C6">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -935,19 +926,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K6">
-        <v>0.8637770897832817</v>
+        <v>0.8405797101449275</v>
       </c>
       <c r="L6">
-        <v>558</v>
+        <v>58</v>
       </c>
       <c r="M6">
-        <v>558</v>
+        <v>58</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -959,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>88</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -967,13 +958,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3018867924528302</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -985,19 +976,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K7">
-        <v>0.7608695652173914</v>
+        <v>0.7662337662337663</v>
       </c>
       <c r="L7">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="M7">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1009,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1017,13 +1008,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2727272727272727</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1035,19 +1026,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K8">
-        <v>0.7586206896551724</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="L8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1059,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1067,13 +1058,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2307692307692308</v>
+        <v>0.202020202020202</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1085,19 +1076,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K9">
-        <v>0.7272727272727273</v>
+        <v>0.7173913043478261</v>
       </c>
       <c r="L9">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="M9">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1109,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1117,13 +1108,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1513513513513514</v>
+        <v>0.1297297297297297</v>
       </c>
       <c r="C10">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1135,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K10">
-        <v>0.7229437229437229</v>
+        <v>0.7045454545454546</v>
       </c>
       <c r="L10">
-        <v>167</v>
+        <v>31</v>
       </c>
       <c r="M10">
-        <v>167</v>
+        <v>31</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1159,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>64</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1167,13 +1158,13 @@
         <v>25</v>
       </c>
       <c r="K11">
-        <v>0.7045454545454546</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="L11">
-        <v>31</v>
+        <v>161</v>
       </c>
       <c r="M11">
-        <v>31</v>
+        <v>161</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1185,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1193,13 +1184,13 @@
         <v>26</v>
       </c>
       <c r="K12">
-        <v>0.6901408450704225</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="L12">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M12">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1211,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1219,13 +1210,13 @@
         <v>27</v>
       </c>
       <c r="K13">
-        <v>0.6813559322033899</v>
+        <v>0.6396468699839486</v>
       </c>
       <c r="L13">
-        <v>201</v>
+        <v>797</v>
       </c>
       <c r="M13">
-        <v>201</v>
+        <v>797</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1237,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>94</v>
+        <v>449</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1245,13 +1236,13 @@
         <v>28</v>
       </c>
       <c r="K14">
-        <v>0.6514285714285715</v>
+        <v>0.6372881355932203</v>
       </c>
       <c r="L14">
-        <v>114</v>
+        <v>188</v>
       </c>
       <c r="M14">
-        <v>114</v>
+        <v>188</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1263,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>61</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1271,13 +1262,13 @@
         <v>29</v>
       </c>
       <c r="K15">
-        <v>0.6438356164383562</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L15">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="M15">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1289,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1297,13 +1288,13 @@
         <v>30</v>
       </c>
       <c r="K16">
-        <v>0.6364365971107544</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L16">
-        <v>793</v>
+        <v>44</v>
       </c>
       <c r="M16">
-        <v>793</v>
+        <v>44</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1315,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>453</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1323,13 +1314,13 @@
         <v>31</v>
       </c>
       <c r="K17">
-        <v>0.6222222222222222</v>
+        <v>0.625</v>
       </c>
       <c r="L17">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="M17">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1341,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1349,13 +1340,13 @@
         <v>32</v>
       </c>
       <c r="K18">
-        <v>0.6153846153846154</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L18">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M18">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1367,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1375,13 +1366,13 @@
         <v>33</v>
       </c>
       <c r="K19">
-        <v>0.6142857142857143</v>
+        <v>0.6114285714285714</v>
       </c>
       <c r="L19">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="M19">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1393,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>27</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1401,13 +1392,13 @@
         <v>34</v>
       </c>
       <c r="K20">
-        <v>0.6029411764705882</v>
+        <v>0.6027397260273972</v>
       </c>
       <c r="L20">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M20">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1419,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1427,13 +1418,13 @@
         <v>35</v>
       </c>
       <c r="K21">
-        <v>0.5833333333333334</v>
+        <v>0.578125</v>
       </c>
       <c r="L21">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M21">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1445,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1453,13 +1444,13 @@
         <v>36</v>
       </c>
       <c r="K22">
-        <v>0.578125</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="L22">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="M22">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1471,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1479,13 +1470,13 @@
         <v>37</v>
       </c>
       <c r="K23">
-        <v>0.5614035087719298</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L23">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M23">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1497,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1505,13 +1496,13 @@
         <v>38</v>
       </c>
       <c r="K24">
-        <v>0.5416666666666666</v>
+        <v>0.5209580838323353</v>
       </c>
       <c r="L24">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="M24">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1523,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>22</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1531,13 +1522,13 @@
         <v>39</v>
       </c>
       <c r="K25">
-        <v>0.5389221556886228</v>
+        <v>0.5042735042735043</v>
       </c>
       <c r="L25">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="M25">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1549,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1557,13 +1548,13 @@
         <v>40</v>
       </c>
       <c r="K26">
-        <v>0.5384615384615384</v>
+        <v>0.5</v>
       </c>
       <c r="L26">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="M26">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1575,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1583,13 +1574,13 @@
         <v>41</v>
       </c>
       <c r="K27">
-        <v>0.5102040816326531</v>
+        <v>0.5</v>
       </c>
       <c r="L27">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="M27">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1601,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>24</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1609,13 +1600,13 @@
         <v>42</v>
       </c>
       <c r="K28">
-        <v>0.4705882352941176</v>
+        <v>0.5</v>
       </c>
       <c r="L28">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="M28">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1627,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1635,13 +1626,13 @@
         <v>43</v>
       </c>
       <c r="K29">
-        <v>0.4700854700854701</v>
+        <v>0.4819277108433735</v>
       </c>
       <c r="L29">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M29">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1653,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1687,13 +1678,13 @@
         <v>45</v>
       </c>
       <c r="K31">
-        <v>0.4518072289156627</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="L31">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="M31">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1705,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>91</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1713,13 +1704,13 @@
         <v>46</v>
       </c>
       <c r="K32">
-        <v>0.45</v>
+        <v>0.4511278195488722</v>
       </c>
       <c r="L32">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="M32">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1731,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>55</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1739,13 +1730,13 @@
         <v>47</v>
       </c>
       <c r="K33">
-        <v>0.4457831325301205</v>
+        <v>0.45</v>
       </c>
       <c r="L33">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="M33">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1757,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1765,13 +1756,13 @@
         <v>48</v>
       </c>
       <c r="K34">
-        <v>0.443609022556391</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L34">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="M34">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1783,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>74</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1791,13 +1782,13 @@
         <v>49</v>
       </c>
       <c r="K35">
-        <v>0.4285714285714285</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L35">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="M35">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1809,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1817,13 +1808,13 @@
         <v>50</v>
       </c>
       <c r="K36">
-        <v>0.4210526315789473</v>
+        <v>0.4096385542168675</v>
       </c>
       <c r="L36">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="M36">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1835,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>44</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1843,13 +1834,13 @@
         <v>51</v>
       </c>
       <c r="K37">
-        <v>0.3846153846153846</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="L37">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M37">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1861,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1869,13 +1860,13 @@
         <v>52</v>
       </c>
       <c r="K38">
-        <v>0.375</v>
+        <v>0.3538461538461539</v>
       </c>
       <c r="L38">
-        <v>153</v>
+        <v>23</v>
       </c>
       <c r="M38">
-        <v>153</v>
+        <v>23</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1887,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>255</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1895,13 +1886,13 @@
         <v>53</v>
       </c>
       <c r="K39">
-        <v>0.3469387755102041</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="L39">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="M39">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1913,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>32</v>
+        <v>264</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1921,13 +1912,13 @@
         <v>54</v>
       </c>
       <c r="K40">
-        <v>0.3385214007782101</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L40">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="M40">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1939,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>170</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1947,13 +1938,13 @@
         <v>55</v>
       </c>
       <c r="K41">
-        <v>0.3308270676691729</v>
+        <v>0.3307392996108949</v>
       </c>
       <c r="L41">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="M41">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1965,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>89</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1973,13 +1964,13 @@
         <v>56</v>
       </c>
       <c r="K42">
-        <v>0.3230769230769231</v>
+        <v>0.3233082706766917</v>
       </c>
       <c r="L42">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="M42">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1991,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>44</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2025,13 +2016,13 @@
         <v>58</v>
       </c>
       <c r="K44">
-        <v>0.3157894736842105</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="L44">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M44">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2043,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2051,13 +2042,13 @@
         <v>59</v>
       </c>
       <c r="K45">
-        <v>0.310958904109589</v>
+        <v>0.3027397260273972</v>
       </c>
       <c r="L45">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="M45">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2069,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>503</v>
+        <v>509</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2077,13 +2068,13 @@
         <v>60</v>
       </c>
       <c r="K46">
-        <v>0.2909090909090909</v>
+        <v>0.2949640287769784</v>
       </c>
       <c r="L46">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="M46">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2095,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>39</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2103,13 +2094,13 @@
         <v>61</v>
       </c>
       <c r="K47">
-        <v>0.2805755395683453</v>
+        <v>0.2792792792792793</v>
       </c>
       <c r="L47">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="M47">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2121,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2129,13 +2120,13 @@
         <v>62</v>
       </c>
       <c r="K48">
-        <v>0.2716049382716049</v>
+        <v>0.2574257425742574</v>
       </c>
       <c r="L48">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M48">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2147,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2155,13 +2146,13 @@
         <v>63</v>
       </c>
       <c r="K49">
-        <v>0.2574257425742574</v>
+        <v>0.2450331125827815</v>
       </c>
       <c r="L49">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M49">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2173,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>75</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2181,13 +2172,13 @@
         <v>64</v>
       </c>
       <c r="K50">
-        <v>0.2535885167464115</v>
+        <v>0.2443487621097955</v>
       </c>
       <c r="L50">
-        <v>53</v>
+        <v>227</v>
       </c>
       <c r="M50">
-        <v>53</v>
+        <v>227</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2199,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>156</v>
+        <v>702</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2207,13 +2198,13 @@
         <v>65</v>
       </c>
       <c r="K51">
-        <v>0.2522522522522522</v>
+        <v>0.2407407407407407</v>
       </c>
       <c r="L51">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M51">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2225,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2233,13 +2224,13 @@
         <v>66</v>
       </c>
       <c r="K52">
-        <v>0.25</v>
+        <v>0.2368421052631579</v>
       </c>
       <c r="L52">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="M52">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2251,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>81</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2259,13 +2250,13 @@
         <v>67</v>
       </c>
       <c r="K53">
-        <v>0.25</v>
+        <v>0.2261904761904762</v>
       </c>
       <c r="L53">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M53">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2277,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2285,13 +2276,13 @@
         <v>68</v>
       </c>
       <c r="K54">
-        <v>0.2454251883745963</v>
+        <v>0.2205882352941176</v>
       </c>
       <c r="L54">
-        <v>228</v>
+        <v>15</v>
       </c>
       <c r="M54">
-        <v>228</v>
+        <v>15</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2303,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>701</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2311,13 +2302,13 @@
         <v>69</v>
       </c>
       <c r="K55">
-        <v>0.2100313479623825</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="L55">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="M55">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2329,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>252</v>
+        <v>165</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2337,13 +2328,13 @@
         <v>70</v>
       </c>
       <c r="K56">
-        <v>0.2095238095238095</v>
+        <v>0.2013245033112583</v>
       </c>
       <c r="L56">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="M56">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2355,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>83</v>
+        <v>603</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2363,13 +2354,13 @@
         <v>71</v>
       </c>
       <c r="K57">
-        <v>0.1967213114754098</v>
+        <v>0.1912225705329154</v>
       </c>
       <c r="L57">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="M57">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2381,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>98</v>
+        <v>258</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2389,13 +2380,13 @@
         <v>72</v>
       </c>
       <c r="K58">
-        <v>0.1920529801324503</v>
+        <v>0.1882352941176471</v>
       </c>
       <c r="L58">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="M58">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2407,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>122</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2415,13 +2406,13 @@
         <v>73</v>
       </c>
       <c r="K59">
-        <v>0.1847826086956522</v>
+        <v>0.1751918158567775</v>
       </c>
       <c r="L59">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="M59">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2433,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>75</v>
+        <v>645</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2441,13 +2432,13 @@
         <v>74</v>
       </c>
       <c r="K60">
-        <v>0.1814569536423841</v>
+        <v>0.1644204851752022</v>
       </c>
       <c r="L60">
-        <v>137</v>
+        <v>61</v>
       </c>
       <c r="M60">
-        <v>137</v>
+        <v>61</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2459,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>618</v>
+        <v>310</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2467,13 +2458,13 @@
         <v>75</v>
       </c>
       <c r="K61">
-        <v>0.1801801801801802</v>
+        <v>0.1610738255033557</v>
       </c>
       <c r="L61">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M61">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2485,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>91</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2493,25 +2484,25 @@
         <v>76</v>
       </c>
       <c r="K62">
-        <v>0.1785714285714286</v>
+        <v>0.16</v>
       </c>
       <c r="L62">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M62">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N62">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O62">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2519,25 +2510,25 @@
         <v>77</v>
       </c>
       <c r="K63">
-        <v>0.1769230769230769</v>
+        <v>0.1351351351351351</v>
       </c>
       <c r="L63">
-        <v>138</v>
+        <v>15</v>
       </c>
       <c r="M63">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c r="N63">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>642</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2545,13 +2536,13 @@
         <v>78</v>
       </c>
       <c r="K64">
-        <v>0.1764705882352941</v>
+        <v>0.1341463414634146</v>
       </c>
       <c r="L64">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M64">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2563,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>70</v>
+        <v>142</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2571,13 +2562,13 @@
         <v>79</v>
       </c>
       <c r="K65">
-        <v>0.1610738255033557</v>
+        <v>0.1338199513381995</v>
       </c>
       <c r="L65">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="M65">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2589,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>125</v>
+        <v>356</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2597,7 +2588,7 @@
         <v>80</v>
       </c>
       <c r="K66">
-        <v>0.1585365853658537</v>
+        <v>0.1280788177339902</v>
       </c>
       <c r="L66">
         <v>26</v>
@@ -2615,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>138</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2623,13 +2614,13 @@
         <v>81</v>
       </c>
       <c r="K67">
-        <v>0.1472868217054264</v>
+        <v>0.1168384879725086</v>
       </c>
       <c r="L67">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="M67">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2641,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>110</v>
+        <v>257</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2649,13 +2640,13 @@
         <v>82</v>
       </c>
       <c r="K68">
-        <v>0.1435523114355231</v>
+        <v>0.1159090909090909</v>
       </c>
       <c r="L68">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="M68">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2667,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>352</v>
+        <v>389</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2675,7 +2666,7 @@
         <v>83</v>
       </c>
       <c r="K69">
-        <v>0.1376146788990826</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="L69">
         <v>15</v>
@@ -2693,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>94</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2701,13 +2692,13 @@
         <v>84</v>
       </c>
       <c r="K70">
-        <v>0.1272727272727273</v>
+        <v>0.1129943502824859</v>
       </c>
       <c r="L70">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M70">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2719,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2727,13 +2718,13 @@
         <v>85</v>
       </c>
       <c r="K71">
-        <v>0.1242937853107345</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L71">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M71">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2745,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>155</v>
+        <v>136</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2753,13 +2744,13 @@
         <v>86</v>
       </c>
       <c r="K72">
-        <v>0.1237113402061856</v>
+        <v>0.108974358974359</v>
       </c>
       <c r="L72">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="M72">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2771,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>255</v>
+        <v>139</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2779,13 +2770,13 @@
         <v>87</v>
       </c>
       <c r="K73">
-        <v>0.1230769230769231</v>
+        <v>0.1033210332103321</v>
       </c>
       <c r="L73">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M73">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2797,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>114</v>
+        <v>243</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2805,13 +2796,13 @@
         <v>88</v>
       </c>
       <c r="K74">
-        <v>0.1218487394957983</v>
+        <v>0.09815950920245399</v>
       </c>
       <c r="L74">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="M74">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2823,7 +2814,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>209</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2831,13 +2822,13 @@
         <v>89</v>
       </c>
       <c r="K75">
-        <v>0.119047619047619</v>
+        <v>0.09785202863961814</v>
       </c>
       <c r="L75">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="M75">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2849,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>111</v>
+        <v>378</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -2857,13 +2848,13 @@
         <v>90</v>
       </c>
       <c r="K76">
-        <v>0.1162280701754386</v>
+        <v>0.09663865546218488</v>
       </c>
       <c r="L76">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="M76">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2875,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>403</v>
+        <v>215</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -2883,13 +2874,13 @@
         <v>91</v>
       </c>
       <c r="K77">
-        <v>0.1159090909090909</v>
+        <v>0.09429824561403509</v>
       </c>
       <c r="L77">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="M77">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -2901,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>389</v>
+        <v>413</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -2909,7 +2900,7 @@
         <v>92</v>
       </c>
       <c r="K78">
-        <v>0.1145038167938931</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L78">
         <v>15</v>
@@ -2927,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>116</v>
+        <v>150</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -2935,13 +2926,13 @@
         <v>93</v>
       </c>
       <c r="K79">
-        <v>0.1143911439114391</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="L79">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M79">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -2953,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -2961,25 +2952,25 @@
         <v>94</v>
       </c>
       <c r="K80">
-        <v>0.1135135135135135</v>
+        <v>0.08653846153846154</v>
       </c>
       <c r="L80">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="M80">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="N80">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O80">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q80">
-        <v>328</v>
+        <v>190</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -2987,13 +2978,13 @@
         <v>95</v>
       </c>
       <c r="K81">
-        <v>0.09852216748768473</v>
+        <v>0.07923497267759563</v>
       </c>
       <c r="L81">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="M81">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3005,7 +2996,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>183</v>
+        <v>337</v>
       </c>
     </row>
     <row r="82" spans="10:17">
@@ -3013,25 +3004,25 @@
         <v>96</v>
       </c>
       <c r="K82">
-        <v>0.0962962962962963</v>
+        <v>0.07604017216642754</v>
       </c>
       <c r="L82">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="M82">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="N82">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O82">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q82">
-        <v>244</v>
+        <v>644</v>
       </c>
     </row>
     <row r="83" spans="10:17">
@@ -3039,25 +3030,25 @@
         <v>97</v>
       </c>
       <c r="K83">
-        <v>0.09202453987730061</v>
+        <v>0.07002801120448179</v>
       </c>
       <c r="L83">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="M83">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="N83">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O83">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q83">
-        <v>148</v>
+        <v>996</v>
       </c>
     </row>
     <row r="84" spans="10:17">
@@ -3065,13 +3056,13 @@
         <v>98</v>
       </c>
       <c r="K84">
-        <v>0.08591885441527446</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="L84">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="M84">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -3083,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>383</v>
+        <v>232</v>
       </c>
     </row>
     <row r="85" spans="10:17">
@@ -3091,25 +3082,25 @@
         <v>99</v>
       </c>
       <c r="K85">
-        <v>0.07943925233644859</v>
+        <v>0.06345177664974619</v>
       </c>
       <c r="L85">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="M85">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="N85">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O85">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q85">
-        <v>985</v>
+        <v>369</v>
       </c>
     </row>
     <row r="86" spans="10:17">
@@ -3117,25 +3108,25 @@
         <v>100</v>
       </c>
       <c r="K86">
-        <v>0.06854838709677419</v>
+        <v>0.0467032967032967</v>
       </c>
       <c r="L86">
         <v>17</v>
       </c>
       <c r="M86">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N86">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O86">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q86">
-        <v>231</v>
+        <v>347</v>
       </c>
     </row>
     <row r="87" spans="10:17">
@@ -3143,25 +3134,25 @@
         <v>101</v>
       </c>
       <c r="K87">
-        <v>0.06743185078909612</v>
+        <v>0.04243542435424354</v>
       </c>
       <c r="L87">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="M87">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="N87">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O87">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q87">
-        <v>650</v>
+        <v>519</v>
       </c>
     </row>
     <row r="88" spans="10:17">
@@ -3169,25 +3160,25 @@
         <v>102</v>
       </c>
       <c r="K88">
-        <v>0.0546448087431694</v>
+        <v>0.04030710172744722</v>
       </c>
       <c r="L88">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M88">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N88">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O88">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q88">
-        <v>346</v>
+        <v>500</v>
       </c>
     </row>
     <row r="89" spans="10:17">
@@ -3195,25 +3186,25 @@
         <v>103</v>
       </c>
       <c r="K89">
-        <v>0.04834605597964377</v>
+        <v>0.03892733564013841</v>
       </c>
       <c r="L89">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="M89">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="N89">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="O89">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P89" t="b">
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>374</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="90" spans="10:17">
@@ -3221,103 +3212,25 @@
         <v>104</v>
       </c>
       <c r="K90">
-        <v>0.04830917874396135</v>
+        <v>0.03631961259079903</v>
       </c>
       <c r="L90">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M90">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N90">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O90">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q90">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="91" spans="10:17">
-      <c r="J91" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K91">
-        <v>0.04797047970479705</v>
-      </c>
-      <c r="L91">
-        <v>26</v>
-      </c>
-      <c r="M91">
-        <v>26</v>
-      </c>
-      <c r="N91">
-        <v>1</v>
-      </c>
-      <c r="O91">
-        <v>0</v>
-      </c>
-      <c r="P91" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q91">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="92" spans="10:17">
-      <c r="J92" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K92">
-        <v>0.04072790294627383</v>
-      </c>
-      <c r="L92">
-        <v>47</v>
-      </c>
-      <c r="M92">
-        <v>50</v>
-      </c>
-      <c r="N92">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O92">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P92" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q92">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="93" spans="10:17">
-      <c r="J93" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K93">
-        <v>0.02094240837696335</v>
-      </c>
-      <c r="L93">
-        <v>16</v>
-      </c>
-      <c r="M93">
-        <v>19</v>
-      </c>
-      <c r="N93">
-        <v>0.84</v>
-      </c>
-      <c r="O93">
-        <v>0.16</v>
-      </c>
-      <c r="P93" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q93">
-        <v>748</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
